--- a/IPC_Bogota.xlsx
+++ b/IPC_Bogota.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,11 +490,6 @@
           <t>dbscan_pca</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>IPC_Category</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -527,11 +522,6 @@
       <c r="J2" t="n">
         <v>-1</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -564,11 +554,6 @@
       <c r="J3" t="n">
         <v>-1</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -601,11 +586,6 @@
       <c r="J4" t="n">
         <v>-1</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -638,11 +618,6 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -675,11 +650,6 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -712,11 +682,6 @@
       <c r="J7" t="n">
         <v>0</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -749,11 +714,6 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -786,11 +746,6 @@
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -823,11 +778,6 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -860,11 +810,6 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -897,11 +842,6 @@
       <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -934,11 +874,6 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -971,11 +906,6 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1008,11 +938,6 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1045,11 +970,6 @@
       <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1082,11 +1002,6 @@
       <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1119,11 +1034,6 @@
       <c r="J18" t="n">
         <v>0</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1156,11 +1066,6 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1193,11 +1098,6 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1230,11 +1130,6 @@
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1267,11 +1162,6 @@
       <c r="J22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1304,11 +1194,6 @@
       <c r="J23" t="n">
         <v>0</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1341,11 +1226,6 @@
       <c r="J24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1378,11 +1258,6 @@
       <c r="J25" t="n">
         <v>0</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1415,11 +1290,6 @@
       <c r="J26" t="n">
         <v>0</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1452,11 +1322,6 @@
       <c r="J27" t="n">
         <v>0</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1489,11 +1354,6 @@
       <c r="J28" t="n">
         <v>0</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1526,11 +1386,6 @@
       <c r="J29" t="n">
         <v>0</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1563,11 +1418,6 @@
       <c r="J30" t="n">
         <v>0</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1600,11 +1450,6 @@
       <c r="J31" t="n">
         <v>0</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1637,11 +1482,6 @@
       <c r="J32" t="n">
         <v>0</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1674,11 +1514,6 @@
       <c r="J33" t="n">
         <v>0</v>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1711,11 +1546,6 @@
       <c r="J34" t="n">
         <v>0</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1748,11 +1578,6 @@
       <c r="J35" t="n">
         <v>0</v>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1785,11 +1610,6 @@
       <c r="J36" t="n">
         <v>0</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1822,11 +1642,6 @@
       <c r="J37" t="n">
         <v>0</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1859,11 +1674,6 @@
       <c r="J38" t="n">
         <v>0</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1896,11 +1706,6 @@
       <c r="J39" t="n">
         <v>0</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1933,11 +1738,6 @@
       <c r="J40" t="n">
         <v>0</v>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1970,11 +1770,6 @@
       <c r="J41" t="n">
         <v>0</v>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2007,11 +1802,6 @@
       <c r="J42" t="n">
         <v>0</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2044,11 +1834,6 @@
       <c r="J43" t="n">
         <v>0</v>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2081,11 +1866,6 @@
       <c r="J44" t="n">
         <v>0</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2118,11 +1898,6 @@
       <c r="J45" t="n">
         <v>0</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2155,11 +1930,6 @@
       <c r="J46" t="n">
         <v>0</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2192,11 +1962,6 @@
       <c r="J47" t="n">
         <v>0</v>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2229,11 +1994,6 @@
       <c r="J48" t="n">
         <v>0</v>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2266,11 +2026,6 @@
       <c r="J49" t="n">
         <v>0</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2303,11 +2058,6 @@
       <c r="J50" t="n">
         <v>0</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2340,11 +2090,6 @@
       <c r="J51" t="n">
         <v>0</v>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2377,11 +2122,6 @@
       <c r="J52" t="n">
         <v>0</v>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2414,11 +2154,6 @@
       <c r="J53" t="n">
         <v>0</v>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2451,11 +2186,6 @@
       <c r="J54" t="n">
         <v>0</v>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2488,11 +2218,6 @@
       <c r="J55" t="n">
         <v>0</v>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2525,11 +2250,6 @@
       <c r="J56" t="n">
         <v>0</v>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2562,11 +2282,6 @@
       <c r="J57" t="n">
         <v>0</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2599,11 +2314,6 @@
       <c r="J58" t="n">
         <v>0</v>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2636,11 +2346,6 @@
       <c r="J59" t="n">
         <v>0</v>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2673,11 +2378,6 @@
       <c r="J60" t="n">
         <v>0</v>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2710,11 +2410,6 @@
       <c r="J61" t="n">
         <v>0</v>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2747,11 +2442,6 @@
       <c r="J62" t="n">
         <v>0</v>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2784,11 +2474,6 @@
       <c r="J63" t="n">
         <v>0</v>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2821,11 +2506,6 @@
       <c r="J64" t="n">
         <v>0</v>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2858,11 +2538,6 @@
       <c r="J65" t="n">
         <v>0</v>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2895,11 +2570,6 @@
       <c r="J66" t="n">
         <v>0</v>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2932,11 +2602,6 @@
       <c r="J67" t="n">
         <v>0</v>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2969,11 +2634,6 @@
       <c r="J68" t="n">
         <v>0</v>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3006,11 +2666,6 @@
       <c r="J69" t="n">
         <v>0</v>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3043,11 +2698,6 @@
       <c r="J70" t="n">
         <v>0</v>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3080,11 +2730,6 @@
       <c r="J71" t="n">
         <v>0</v>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3117,11 +2762,6 @@
       <c r="J72" t="n">
         <v>0</v>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3154,11 +2794,6 @@
       <c r="J73" t="n">
         <v>0</v>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3191,11 +2826,6 @@
       <c r="J74" t="n">
         <v>-1</v>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -3228,11 +2858,6 @@
       <c r="J75" t="n">
         <v>-1</v>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -3265,11 +2890,6 @@
       <c r="J76" t="n">
         <v>-1</v>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -3302,11 +2922,6 @@
       <c r="J77" t="n">
         <v>0</v>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -3339,11 +2954,6 @@
       <c r="J78" t="n">
         <v>0</v>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -3376,11 +2986,6 @@
       <c r="J79" t="n">
         <v>0</v>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -3413,11 +3018,6 @@
       <c r="J80" t="n">
         <v>0</v>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -3450,11 +3050,6 @@
       <c r="J81" t="n">
         <v>0</v>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -3487,11 +3082,6 @@
       <c r="J82" t="n">
         <v>0</v>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -3524,11 +3114,6 @@
       <c r="J83" t="n">
         <v>0</v>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -3561,11 +3146,6 @@
       <c r="J84" t="n">
         <v>0</v>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -3598,11 +3178,6 @@
       <c r="J85" t="n">
         <v>0</v>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -3635,11 +3210,6 @@
       <c r="J86" t="n">
         <v>0</v>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -3672,11 +3242,6 @@
       <c r="J87" t="n">
         <v>0</v>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -3709,11 +3274,6 @@
       <c r="J88" t="n">
         <v>0</v>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -3746,11 +3306,6 @@
       <c r="J89" t="n">
         <v>0</v>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -3783,11 +3338,6 @@
       <c r="J90" t="n">
         <v>0</v>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -3820,11 +3370,6 @@
       <c r="J91" t="n">
         <v>0</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -3857,11 +3402,6 @@
       <c r="J92" t="n">
         <v>0</v>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -3894,11 +3434,6 @@
       <c r="J93" t="n">
         <v>0</v>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -3931,11 +3466,6 @@
       <c r="J94" t="n">
         <v>0</v>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -3968,11 +3498,6 @@
       <c r="J95" t="n">
         <v>0</v>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -4005,11 +3530,6 @@
       <c r="J96" t="n">
         <v>0</v>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -4042,11 +3562,6 @@
       <c r="J97" t="n">
         <v>0</v>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -4079,11 +3594,6 @@
       <c r="J98" t="n">
         <v>0</v>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -4116,11 +3626,6 @@
       <c r="J99" t="n">
         <v>0</v>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -4153,11 +3658,6 @@
       <c r="J100" t="n">
         <v>0</v>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -4190,11 +3690,6 @@
       <c r="J101" t="n">
         <v>0</v>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -4227,11 +3722,6 @@
       <c r="J102" t="n">
         <v>0</v>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -4264,11 +3754,6 @@
       <c r="J103" t="n">
         <v>0</v>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -4301,11 +3786,6 @@
       <c r="J104" t="n">
         <v>0</v>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -4338,11 +3818,6 @@
       <c r="J105" t="n">
         <v>0</v>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -4375,11 +3850,6 @@
       <c r="J106" t="n">
         <v>0</v>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -4412,11 +3882,6 @@
       <c r="J107" t="n">
         <v>0</v>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -4449,11 +3914,6 @@
       <c r="J108" t="n">
         <v>0</v>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -4486,11 +3946,6 @@
       <c r="J109" t="n">
         <v>0</v>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -4523,11 +3978,6 @@
       <c r="J110" t="n">
         <v>0</v>
       </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -4560,11 +4010,6 @@
       <c r="J111" t="n">
         <v>0</v>
       </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -4597,11 +4042,6 @@
       <c r="J112" t="n">
         <v>0</v>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -4634,11 +4074,6 @@
       <c r="J113" t="n">
         <v>0</v>
       </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -4671,11 +4106,6 @@
       <c r="J114" t="n">
         <v>0</v>
       </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -4708,11 +4138,6 @@
       <c r="J115" t="n">
         <v>0</v>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -4745,11 +4170,6 @@
       <c r="J116" t="n">
         <v>0</v>
       </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -4782,11 +4202,6 @@
       <c r="J117" t="n">
         <v>0</v>
       </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -4819,11 +4234,6 @@
       <c r="J118" t="n">
         <v>0</v>
       </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -4856,11 +4266,6 @@
       <c r="J119" t="n">
         <v>0</v>
       </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -4893,11 +4298,6 @@
       <c r="J120" t="n">
         <v>0</v>
       </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -4930,11 +4330,6 @@
       <c r="J121" t="n">
         <v>0</v>
       </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -4967,11 +4362,6 @@
       <c r="J122" t="n">
         <v>0</v>
       </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -5004,11 +4394,6 @@
       <c r="J123" t="n">
         <v>0</v>
       </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -5041,11 +4426,6 @@
       <c r="J124" t="n">
         <v>0</v>
       </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -5078,11 +4458,6 @@
       <c r="J125" t="n">
         <v>0</v>
       </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -5115,11 +4490,6 @@
       <c r="J126" t="n">
         <v>0</v>
       </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -5152,11 +4522,6 @@
       <c r="J127" t="n">
         <v>0</v>
       </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -5189,11 +4554,6 @@
       <c r="J128" t="n">
         <v>0</v>
       </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -5226,11 +4586,6 @@
       <c r="J129" t="n">
         <v>0</v>
       </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -5263,11 +4618,6 @@
       <c r="J130" t="n">
         <v>0</v>
       </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -5300,11 +4650,6 @@
       <c r="J131" t="n">
         <v>0</v>
       </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -5337,11 +4682,6 @@
       <c r="J132" t="n">
         <v>0</v>
       </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -5374,11 +4714,6 @@
       <c r="J133" t="n">
         <v>0</v>
       </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -5411,11 +4746,6 @@
       <c r="J134" t="n">
         <v>0</v>
       </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -5448,11 +4778,6 @@
       <c r="J135" t="n">
         <v>0</v>
       </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -5485,11 +4810,6 @@
       <c r="J136" t="n">
         <v>0</v>
       </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -5522,11 +4842,6 @@
       <c r="J137" t="n">
         <v>0</v>
       </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -5559,11 +4874,6 @@
       <c r="J138" t="n">
         <v>0</v>
       </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -5596,11 +4906,6 @@
       <c r="J139" t="n">
         <v>0</v>
       </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -5633,11 +4938,6 @@
       <c r="J140" t="n">
         <v>0</v>
       </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -5670,11 +4970,6 @@
       <c r="J141" t="n">
         <v>0</v>
       </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -5707,11 +5002,6 @@
       <c r="J142" t="n">
         <v>0</v>
       </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -5744,11 +5034,6 @@
       <c r="J143" t="n">
         <v>0</v>
       </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -5781,11 +5066,6 @@
       <c r="J144" t="n">
         <v>0</v>
       </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -5818,11 +5098,6 @@
       <c r="J145" t="n">
         <v>0</v>
       </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -5855,11 +5130,6 @@
       <c r="J146" t="n">
         <v>0</v>
       </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -5892,11 +5162,6 @@
       <c r="J147" t="n">
         <v>0</v>
       </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -5929,11 +5194,6 @@
       <c r="J148" t="n">
         <v>0</v>
       </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -5966,11 +5226,6 @@
       <c r="J149" t="n">
         <v>0</v>
       </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -6003,11 +5258,6 @@
       <c r="J150" t="n">
         <v>0</v>
       </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -6040,11 +5290,6 @@
       <c r="J151" t="n">
         <v>0</v>
       </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -6077,11 +5322,6 @@
       <c r="J152" t="n">
         <v>0</v>
       </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -6114,11 +5354,6 @@
       <c r="J153" t="n">
         <v>0</v>
       </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -6151,11 +5386,6 @@
       <c r="J154" t="n">
         <v>0</v>
       </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -6188,11 +5418,6 @@
       <c r="J155" t="n">
         <v>0</v>
       </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -6225,11 +5450,6 @@
       <c r="J156" t="n">
         <v>0</v>
       </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -6262,11 +5482,6 @@
       <c r="J157" t="n">
         <v>0</v>
       </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -6299,11 +5514,6 @@
       <c r="J158" t="n">
         <v>0</v>
       </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -6336,11 +5546,6 @@
       <c r="J159" t="n">
         <v>0</v>
       </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -6373,11 +5578,6 @@
       <c r="J160" t="n">
         <v>0</v>
       </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -6410,11 +5610,6 @@
       <c r="J161" t="n">
         <v>0</v>
       </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -6447,11 +5642,6 @@
       <c r="J162" t="n">
         <v>0</v>
       </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -6484,11 +5674,6 @@
       <c r="J163" t="n">
         <v>0</v>
       </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -6521,11 +5706,6 @@
       <c r="J164" t="n">
         <v>0</v>
       </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -6558,11 +5738,6 @@
       <c r="J165" t="n">
         <v>0</v>
       </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -6595,11 +5770,6 @@
       <c r="J166" t="n">
         <v>0</v>
       </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -6632,11 +5802,6 @@
       <c r="J167" t="n">
         <v>0</v>
       </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -6669,11 +5834,6 @@
       <c r="J168" t="n">
         <v>0</v>
       </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -6706,11 +5866,6 @@
       <c r="J169" t="n">
         <v>0</v>
       </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -6743,11 +5898,6 @@
       <c r="J170" t="n">
         <v>0</v>
       </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -6780,11 +5930,6 @@
       <c r="J171" t="n">
         <v>0</v>
       </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -6816,11 +5961,6 @@
       </c>
       <c r="J172" t="n">
         <v>0</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
       </c>
     </row>
   </sheetData>
